--- a/metrics/R2/Ictus.xlsx
+++ b/metrics/R2/Ictus.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997108261703417</v>
+        <v>0.9969033162691203</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969917454838544</v>
+        <v>0.9972067099356036</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9969822374882178</v>
+        <v>0.9971279349314993</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.9965699670864142</v>
       </c>
       <c r="C4" t="n">
+        <v>0.9965700457374805</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.9965699670864142</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9965700457374805</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9840304184227927</v>
+        <v>0.985639071626108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9862612464978902</v>
+        <v>0.9854972758612843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9854947700087262</v>
+        <v>0.9861078689948336</v>
       </c>
     </row>
   </sheetData>
